--- a/mf-intelligence/data/processed/quant/quant_Arbitrage_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Arbitrage_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE619A01035</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patanjali Foods Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.535528</v>
+        <v>5.122585</v>
       </c>
       <c r="E2" t="n">
-        <v>5.365222</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.580702</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.170306</v>
+        <v>5.122585</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9548260000000006</v>
+        <v>5.122585</v>
       </c>
     </row>
     <row r="3">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>4.586708</v>
+      </c>
+      <c r="E3" t="n">
         <v>6.368688</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.388368</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.935659</v>
-      </c>
       <c r="G3" t="n">
-        <v>-1.01968</v>
+        <v>-1.78198</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5669710000000006</v>
+        <v>-2.80166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE619A01035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Patanjali Foods Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.613014</v>
+        <v>4.469772</v>
       </c>
       <c r="E4" t="n">
-        <v>4.963667</v>
+        <v>6.535528</v>
       </c>
       <c r="F4" t="n">
-        <v>4.894347</v>
+        <v>5.365222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6493469999999997</v>
+        <v>-2.065756</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7186669999999999</v>
+        <v>-0.8954500000000003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE669E01016</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vodafone Idea Ltd.</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.976178</v>
+        <v>4.246653</v>
       </c>
       <c r="E5" t="n">
-        <v>5.177771</v>
+        <v>5.613014</v>
       </c>
       <c r="F5" t="n">
-        <v>4.452223</v>
+        <v>4.963667</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2015929999999999</v>
+        <v>-1.366360999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5239549999999999</v>
+        <v>-0.7170139999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE038A01020</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hindalco Industries Limited</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.674474</v>
+        <v>3.873369</v>
       </c>
       <c r="E6" t="n">
-        <v>4.790515</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.290919</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1160410000000001</v>
+        <v>3.873369</v>
       </c>
       <c r="H6" t="n">
-        <v>2.383555</v>
+        <v>3.873369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE205A01025</t>
+          <t>INE669E01016</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vedanta Limited</t>
+          <t>Vodafone Idea Ltd.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.723174</v>
+        <v>3.851404</v>
       </c>
       <c r="E7" t="n">
-        <v>3.64229</v>
+        <v>4.976178</v>
       </c>
       <c r="F7" t="n">
-        <v>1.991723</v>
+        <v>5.177771</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08088400000000018</v>
+        <v>-1.124774</v>
       </c>
       <c r="H7" t="n">
-        <v>1.731451</v>
+        <v>-1.326367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE038A01020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Hindalco Industries Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.18037</v>
+        <v>3.783416</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4.674474</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.790515</v>
       </c>
       <c r="G8" t="n">
-        <v>3.18037</v>
+        <v>-0.8910580000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3.18037</v>
+        <v>-1.007099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE205A01025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Vedanta Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.105701</v>
+        <v>3.130176</v>
       </c>
       <c r="E9" t="n">
-        <v>3.620038</v>
+        <v>3.723174</v>
       </c>
       <c r="F9" t="n">
-        <v>3.480331</v>
+        <v>3.64229</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5143370000000003</v>
+        <v>-0.5929980000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3746300000000002</v>
+        <v>-0.512114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.055017</v>
+        <v>2.97592</v>
       </c>
       <c r="E10" t="n">
-        <v>3.369112</v>
+        <v>2.060316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.39462</v>
+        <v>2.356967</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.314095</v>
+        <v>0.9156040000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2.660397</v>
+        <v>0.6189529999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.54027</v>
+        <v>2.363829</v>
       </c>
       <c r="E11" t="n">
-        <v>2.85021</v>
+        <v>3.105701</v>
       </c>
       <c r="F11" t="n">
-        <v>2.651455</v>
+        <v>3.620038</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3099400000000001</v>
+        <v>-0.7418719999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1111849999999999</v>
+        <v>-1.256209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JSW Steel Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.376838</v>
+        <v>2.241933</v>
       </c>
       <c r="E12" t="n">
-        <v>2.661451</v>
+        <v>3.18037</v>
       </c>
       <c r="F12" t="n">
-        <v>2.71378</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2846130000000002</v>
+        <v>-0.938437</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3369420000000001</v>
+        <v>2.241933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE849A01020</t>
+          <t>INE016A01026</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Trent Ltd</t>
+          <t>Dabur India Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.269405</v>
+        <v>2.003167</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -853,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.269405</v>
+        <v>2.003167</v>
       </c>
       <c r="H13" t="n">
-        <v>2.269405</v>
+        <v>2.003167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.10127</v>
+        <v>1.968018</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.042445</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.10127</v>
+        <v>0.925573</v>
       </c>
       <c r="H14" t="n">
-        <v>2.10127</v>
+        <v>1.968018</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE115A01026</t>
+          <t>INE094A01015</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd</t>
+          <t>Hindustan Petroleum Corporation Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.060316</v>
+        <v>1.948855</v>
       </c>
       <c r="E15" t="n">
-        <v>2.356967</v>
+        <v>3.055017</v>
       </c>
       <c r="F15" t="n">
-        <v>2.404248</v>
+        <v>3.369112</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2966510000000002</v>
+        <v>-1.106162</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3439320000000001</v>
+        <v>-1.420257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE121J01017</t>
+          <t>INE918I01026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Indus Towers Limited</t>
+          <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.774481</v>
+        <v>1.930213</v>
       </c>
       <c r="E16" t="n">
-        <v>1.910358</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.135877</v>
+        <v>1.930213</v>
       </c>
       <c r="H16" t="n">
-        <v>1.774481</v>
+        <v>1.930213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.744936</v>
+        <v>1.84816</v>
       </c>
       <c r="E17" t="n">
-        <v>2.028501</v>
+        <v>1.576368</v>
       </c>
       <c r="F17" t="n">
-        <v>1.927675</v>
+        <v>1.820989</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2835649999999998</v>
+        <v>0.271792</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.182739</v>
+        <v>0.02717100000000006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE361B01024</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Divi's Laboratories Limited</t>
+          <t>JSW Steel Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.695159</v>
+        <v>1.847533</v>
       </c>
       <c r="E18" t="n">
-        <v>1.930694</v>
+        <v>2.376838</v>
       </c>
       <c r="F18" t="n">
-        <v>1.970379</v>
+        <v>2.661451</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2355349999999998</v>
+        <v>-0.5293049999999997</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.27522</v>
+        <v>-0.8139179999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.576368</v>
+        <v>1.682869</v>
       </c>
       <c r="E19" t="n">
-        <v>1.820989</v>
+        <v>2.54027</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.85021</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.244621</v>
+        <v>-0.8574010000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1.576368</v>
+        <v>-1.167341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Britannia Industries Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.561304</v>
+        <v>1.651093</v>
       </c>
       <c r="E20" t="n">
-        <v>1.784079</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.969029</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2227749999999999</v>
+        <v>1.651093</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4077249999999999</v>
+        <v>1.651093</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE721A01047</t>
+          <t>INE849A01020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shriram Finance Limited</t>
+          <t>Trent Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.351238</v>
+        <v>1.496839</v>
       </c>
       <c r="E21" t="n">
-        <v>2.555138</v>
+        <v>2.269405</v>
       </c>
       <c r="F21" t="n">
-        <v>3.468947</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.2039</v>
+        <v>-0.7725659999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.117709</v>
+        <v>1.496839</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE745G01035</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Multi Commodity Exchange of India Ltd.</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.328867</v>
+        <v>1.45196</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1141,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.328867</v>
+        <v>1.45196</v>
       </c>
       <c r="H22" t="n">
-        <v>1.328867</v>
+        <v>1.45196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE118H01025</t>
+          <t>INE030A01027</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE Ltd</t>
+          <t>Hindustan Unilever Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.308759</v>
+        <v>1.435625</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1173,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.308759</v>
+        <v>1.435625</v>
       </c>
       <c r="H23" t="n">
-        <v>1.308759</v>
+        <v>1.435625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE303R01014</t>
+          <t>INE121J01017</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kalyan Jewellers India Limited</t>
+          <t>Indus Towers Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.300562</v>
+        <v>1.403702</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.774481</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.910358</v>
       </c>
       <c r="G24" t="n">
-        <v>1.300562</v>
+        <v>-0.370779</v>
       </c>
       <c r="H24" t="n">
-        <v>1.300562</v>
+        <v>-0.506656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE028A01039</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bank of Baroda</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.285282</v>
+        <v>1.312675</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.744936</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.028501</v>
       </c>
       <c r="G25" t="n">
-        <v>1.285282</v>
+        <v>-0.432261</v>
       </c>
       <c r="H25" t="n">
-        <v>1.285282</v>
+        <v>-0.7158259999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE361B01024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Divi's Laboratories Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,30 +1260,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.042445</v>
+        <v>1.196325</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.695159</v>
       </c>
       <c r="F26" t="n">
-        <v>1.571687</v>
+        <v>1.930694</v>
       </c>
       <c r="G26" t="n">
-        <v>1.042445</v>
+        <v>-0.498834</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.529242</v>
+        <v>-0.7343689999999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE263A01024</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1292,30 +1292,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.026807</v>
+        <v>1.163887</v>
       </c>
       <c r="E27" t="n">
-        <v>1.189315</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.207408</v>
+        <v>1.754371</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1625079999999999</v>
+        <v>1.163887</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.180601</v>
+        <v>-0.590484</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE067A01029</t>
+          <t>INE745G01043</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CG Power and Industrial Solutions Ltd</t>
+          <t>Multi Commodity Exchange of India Ltd.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,30 +1324,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.963852</v>
+        <v>1.124557</v>
       </c>
       <c r="E28" t="n">
-        <v>1.12526</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.794423</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1614079999999999</v>
+        <v>1.124557</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.8305710000000001</v>
+        <v>1.124557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1356,30 +1356,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.92037</v>
+        <v>1.091292</v>
       </c>
       <c r="E29" t="n">
-        <v>2.116385</v>
+        <v>1.561304</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.784079</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.196015</v>
+        <v>-0.4700120000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0.92037</v>
+        <v>-0.692787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE584A01023</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NMDC Ltd</t>
+          <t>Bharat Heavy Electricals Ltd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1388,30 +1388,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.893226</v>
+        <v>1.09069</v>
       </c>
       <c r="E30" t="n">
-        <v>1.308844</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.299202</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4156179999999999</v>
+        <v>1.09069</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5940239999999999</v>
+        <v>1.09069</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE095N01031</t>
+          <t>INE118H01025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>National Building Construction Corp</t>
+          <t>BSE Ltd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1420,30 +1420,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8395629999999999</v>
+        <v>1.036849</v>
       </c>
       <c r="E31" t="n">
-        <v>0.904371</v>
+        <v>1.308759</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06480800000000009</v>
+        <v>-0.2719100000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8395629999999999</v>
+        <v>1.036849</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE298A01020</t>
+          <t>INE028A01039</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cummins India Ltd.</t>
+          <t>Bank of Baroda</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1452,30 +1452,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.79962</v>
+        <v>0.969589</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9079429999999999</v>
+        <v>1.285282</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1083229999999999</v>
+        <v>-0.315693</v>
       </c>
       <c r="H32" t="n">
-        <v>0.79962</v>
+        <v>0.969589</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE881D01027</t>
+          <t>INE263A01024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Oracle Financial Services Software Ltd</t>
+          <t>Bharat Electronics Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1484,30 +1484,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.733836</v>
+        <v>0.860185</v>
       </c>
       <c r="E33" t="n">
-        <v>0.869966</v>
+        <v>1.026807</v>
       </c>
       <c r="F33" t="n">
-        <v>0.896408</v>
+        <v>1.189315</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.13613</v>
+        <v>-0.166622</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1625719999999999</v>
+        <v>-0.3291299999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1516,30 +1516,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.70324</v>
+        <v>0.725189</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.411007</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.70324</v>
+        <v>0.725189</v>
       </c>
       <c r="H34" t="n">
-        <v>0.292233</v>
+        <v>0.725189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE031A01017</t>
+          <t>INE303R01014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Housing &amp; Urban Devlopment Company Ltd</t>
+          <t>Kalyan Jewellers India Limited</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1548,30 +1548,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.537199</v>
+        <v>0.722515</v>
       </c>
       <c r="E35" t="n">
-        <v>0.633372</v>
+        <v>1.300562</v>
       </c>
       <c r="F35" t="n">
-        <v>0.615432</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.09617300000000006</v>
+        <v>-0.578047</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.078233</v>
+        <v>0.722515</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE596I01020</t>
+          <t>INE047A01021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Computer Age Management Services Ltd</t>
+          <t>Grasim Industries Ltd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.530473</v>
+        <v>0.69667</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1589,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.530473</v>
+        <v>0.69667</v>
       </c>
       <c r="H36" t="n">
-        <v>0.530473</v>
+        <v>0.69667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE584A01023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>NMDC Ltd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1612,30 +1612,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.420804</v>
+        <v>0.650259</v>
       </c>
       <c r="E37" t="n">
-        <v>0.47928</v>
+        <v>0.893226</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.308844</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.05847599999999997</v>
+        <v>-0.2429669999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.420804</v>
+        <v>-0.6585849999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE148O01028</t>
+          <t>INE067A01029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Delhivery Limited</t>
+          <t>CG Power and Industrial Solutions Ltd</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1644,30 +1644,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.399991</v>
+        <v>0.647791</v>
       </c>
       <c r="E38" t="n">
-        <v>0.474508</v>
+        <v>0.963852</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.12526</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.074517</v>
+        <v>-0.316061</v>
       </c>
       <c r="H38" t="n">
-        <v>0.399991</v>
+        <v>-0.4774689999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corp Ltd</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1676,30 +1676,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.281557</v>
+        <v>0.5749919999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>1.860393</v>
+        <v>0.70324</v>
       </c>
       <c r="F39" t="n">
-        <v>1.813399</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.578836</v>
+        <v>-0.128248</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.531842</v>
+        <v>0.5749919999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE298A01020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Cummins India Ltd.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1708,30 +1708,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.552887</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5944120000000001</v>
+        <v>0.79962</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.9079429999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.5944120000000001</v>
+        <v>-0.246733</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-0.3550559999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE016A01026</t>
+          <t>INE881D01027</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dabur India Limited</t>
+          <t>Oracle Financial Services Software Ltd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1740,30 +1740,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.552314</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.733836</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285146</v>
+        <v>0.869966</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-0.1815220000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.285146</v>
+        <v>-0.317652</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE095N01031</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>National Building Construction Corp</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1772,30 +1772,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.508178</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.8395629999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>2.74085</v>
+        <v>0.904371</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-0.3313849999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.74085</v>
+        <v>-0.396193</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INE596I01012</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Computer Age Management Services Ltd</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1804,30 +1804,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.369897</v>
       </c>
       <c r="E43" t="n">
-        <v>0.622985</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.622985</v>
+        <v>0.369897</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.369897</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INE280A01028</t>
+          <t>INE160A01022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Titan Company Limited</t>
+          <t>Punjab National Bank</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1836,30 +1836,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.356413</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.345126</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.356413</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.345126</v>
+        <v>0.356413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE031A01017</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Housing &amp; Urban Devlopment Company Ltd</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1868,30 +1868,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.336468</v>
       </c>
       <c r="E45" t="n">
-        <v>0.589358</v>
+        <v>0.537199</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6255849999999999</v>
+        <v>0.633372</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.589358</v>
+        <v>-0.200731</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.6255849999999999</v>
+        <v>-0.2969040000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INE476A01022</t>
+          <t>INE148O01028</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Canara Bank</t>
+          <t>Delhivery Limited</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1900,30 +1900,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.312321</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.399991</v>
       </c>
       <c r="F46" t="n">
-        <v>1.514256</v>
+        <v>0.474508</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.08766999999999997</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.514256</v>
+        <v>-0.162187</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INE397D01024</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1932,30 +1932,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.308627</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.057075</v>
+        <v>0.589358</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.308627</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.057075</v>
+        <v>-0.2807310000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1964,30 +1964,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.281016</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.976109</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.281016</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.976109</v>
+        <v>0.281016</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE947Q01028</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Laurus Labs Ltd</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1996,30 +1996,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.162169</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2.18937</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.162169</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.18937</v>
+        <v>0.162169</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE010B01027</t>
+          <t>INE596I01020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zydus Lifesciences Limited</t>
+          <t>Computer Age Management Services Ltd</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2031,27 +2031,27 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.530473</v>
       </c>
       <c r="F50" t="n">
-        <v>0.615506</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>-0.530473</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.615506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INE148I01020</t>
+          <t>INE596I01012</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sammaan Capital Ltd.</t>
+          <t>Computer Age Management Services Ltd</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2063,27 +2063,27 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.11825</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>2.181693</v>
+        <v>0.622985</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.11825</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.181693</v>
+        <v>-0.622985</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INE134E01011</t>
+          <t>INE721A01047</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Ltd.</t>
+          <t>Shriram Finance Limited</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2095,27 +2095,27 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1.351238</v>
       </c>
       <c r="F52" t="n">
-        <v>2.360789</v>
+        <v>2.555138</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>-1.351238</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.360789</v>
+        <v>-2.555138</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE148I01020</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Sammaan Capital Ltd.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2127,27 +2127,27 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.754371</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.11825</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.754371</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-0.11825</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INE081A01020</t>
+          <t>INE745G01035</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tata Steel Limited</t>
+          <t>Multi Commodity Exchange of India Ltd.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2159,27 +2159,27 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.762333</v>
+        <v>1.328867</v>
       </c>
       <c r="F54" t="n">
-        <v>1.882056</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.762333</v>
+        <v>-1.328867</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.882056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INE066F01020</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hindustan Aeronautics Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2191,27 +2191,27 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.420804</v>
       </c>
       <c r="F55" t="n">
-        <v>0.615827</v>
+        <v>0.47928</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>-0.420804</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.615827</v>
+        <v>-0.47928</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INE947Q01028</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Laurus Labs Ltd</t>
+          <t>Bharat Petroleum Corp Ltd</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2223,16 +2223,144 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.281557</v>
       </c>
       <c r="F56" t="n">
-        <v>1.896342</v>
+        <v>1.860393</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-0.281557</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.896342</v>
+        <v>-1.860393</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>INE237A01028</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Limited</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.10127</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-2.10127</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>INE129A01019</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GAIL (India) Limited</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.92037</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.116385</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.92037</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-2.116385</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>INE081A01020</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tata Steel Limited</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.762333</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-1.762333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>INE018A01030</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Limited</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5944120000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.5944120000000001</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Arbitrage_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Arbitrage_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,21 +496,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5.122585</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.122585</v>
+        <v>2.18937</v>
       </c>
       <c r="H2" t="n">
         <v>5.122585</v>
       </c>
+      <c r="I2" t="n">
+        <v>2.933215</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,20 +533,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>4.586708</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.368688</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.388368</v>
-      </c>
       <c r="G3" t="n">
+        <v>6.935659</v>
+      </c>
+      <c r="H3" t="n">
         <v>-1.78198</v>
       </c>
-      <c r="H3" t="n">
-        <v>-2.80166</v>
+      <c r="I3" t="n">
+        <v>-2.348951</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4.469772</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.535528</v>
       </c>
-      <c r="F4" t="n">
-        <v>5.365222</v>
-      </c>
       <c r="G4" t="n">
+        <v>5.580702</v>
+      </c>
+      <c r="H4" t="n">
         <v>-2.065756</v>
       </c>
-      <c r="H4" t="n">
-        <v>-0.8954500000000003</v>
+      <c r="I4" t="n">
+        <v>-1.11093</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>4.246653</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.613014</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.963667</v>
-      </c>
       <c r="G5" t="n">
+        <v>4.894347</v>
+      </c>
+      <c r="H5" t="n">
         <v>-1.366360999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.7170139999999998</v>
+      <c r="I5" t="n">
+        <v>-0.6476939999999995</v>
       </c>
     </row>
     <row r="6">
@@ -619,21 +644,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>3.873369</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.873369</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>3.873369</v>
       </c>
+      <c r="I6" t="n">
+        <v>3.873369</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,20 +681,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>3.851404</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.976178</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.177771</v>
-      </c>
       <c r="G7" t="n">
+        <v>4.452223</v>
+      </c>
+      <c r="H7" t="n">
         <v>-1.124774</v>
       </c>
-      <c r="H7" t="n">
-        <v>-1.326367</v>
+      <c r="I7" t="n">
+        <v>-0.600819</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>3.783416</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.674474</v>
       </c>
-      <c r="F8" t="n">
-        <v>4.790515</v>
-      </c>
       <c r="G8" t="n">
+        <v>2.290919</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.8910580000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>-1.007099</v>
+      <c r="I8" t="n">
+        <v>1.492497</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.130176</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.723174</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.64229</v>
-      </c>
       <c r="G9" t="n">
+        <v>1.991723</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.5929980000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>-0.512114</v>
+      <c r="I9" t="n">
+        <v>1.138453</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2.97592</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.060316</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.356967</v>
-      </c>
       <c r="G10" t="n">
+        <v>2.404248</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9156040000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.6189529999999999</v>
+      <c r="I10" t="n">
+        <v>0.571672</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.363829</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.105701</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.620038</v>
-      </c>
       <c r="G11" t="n">
+        <v>3.480331</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.7418719999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>-1.256209</v>
+      <c r="I11" t="n">
+        <v>-1.116502</v>
       </c>
     </row>
     <row r="12">
@@ -811,19 +866,24 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.241933</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.18037</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.938437</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.241933</v>
       </c>
     </row>
@@ -843,21 +903,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.003167</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.003167</v>
+        <v>0.285146</v>
       </c>
       <c r="H13" t="n">
         <v>2.003167</v>
       </c>
+      <c r="I13" t="n">
+        <v>1.718021</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,20 +940,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.968018</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.042445</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>1.571687</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.925573</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.968018</v>
+      <c r="I14" t="n">
+        <v>0.396331</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.948855</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3.055017</v>
       </c>
-      <c r="F15" t="n">
-        <v>3.369112</v>
-      </c>
       <c r="G15" t="n">
+        <v>0.39462</v>
+      </c>
+      <c r="H15" t="n">
         <v>-1.106162</v>
       </c>
-      <c r="H15" t="n">
-        <v>-1.420257</v>
+      <c r="I15" t="n">
+        <v>1.554235</v>
       </c>
     </row>
     <row r="16">
@@ -939,21 +1014,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.930213</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.930213</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1.930213</v>
       </c>
+      <c r="I16" t="n">
+        <v>1.930213</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -971,20 +1051,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.84816</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.576368</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.820989</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.271792</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.02717100000000006</v>
+      <c r="I17" t="n">
+        <v>1.84816</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1088,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.847533</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2.376838</v>
       </c>
-      <c r="F18" t="n">
-        <v>2.661451</v>
-      </c>
       <c r="G18" t="n">
+        <v>2.71378</v>
+      </c>
+      <c r="H18" t="n">
         <v>-0.5293049999999997</v>
       </c>
-      <c r="H18" t="n">
-        <v>-0.8139179999999999</v>
+      <c r="I18" t="n">
+        <v>-0.8662469999999998</v>
       </c>
     </row>
     <row r="19">
@@ -1035,20 +1125,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.682869</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>2.54027</v>
       </c>
-      <c r="F19" t="n">
-        <v>2.85021</v>
-      </c>
       <c r="G19" t="n">
+        <v>2.651455</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.8574010000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>-1.167341</v>
+      <c r="I19" t="n">
+        <v>-0.9685859999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1067,21 +1162,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.651093</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.651093</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1.651093</v>
       </c>
+      <c r="I20" t="n">
+        <v>1.651093</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1099,19 +1199,24 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1.496839</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>2.269405</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.7725659999999999</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1.496839</v>
       </c>
     </row>
@@ -1131,21 +1236,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>1.45196</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.45196</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1.45196</v>
       </c>
+      <c r="I22" t="n">
+        <v>1.45196</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1163,21 +1273,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>1.435625</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.435625</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>1.435625</v>
       </c>
+      <c r="I23" t="n">
+        <v>1.435625</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1195,20 +1310,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>1.403702</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.774481</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.910358</v>
-      </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.370779</v>
       </c>
-      <c r="H24" t="n">
-        <v>-0.506656</v>
+      <c r="I24" t="n">
+        <v>1.403702</v>
       </c>
     </row>
     <row r="25">
@@ -1227,20 +1347,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>1.312675</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.744936</v>
       </c>
-      <c r="F25" t="n">
-        <v>2.028501</v>
-      </c>
       <c r="G25" t="n">
+        <v>1.927675</v>
+      </c>
+      <c r="H25" t="n">
         <v>-0.432261</v>
       </c>
-      <c r="H25" t="n">
-        <v>-0.7158259999999999</v>
+      <c r="I25" t="n">
+        <v>-0.615</v>
       </c>
     </row>
     <row r="26">
@@ -1259,20 +1384,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>1.196325</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.695159</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.930694</v>
-      </c>
       <c r="G26" t="n">
+        <v>1.970379</v>
+      </c>
+      <c r="H26" t="n">
         <v>-0.498834</v>
       </c>
-      <c r="H26" t="n">
-        <v>-0.7343689999999998</v>
+      <c r="I26" t="n">
+        <v>-0.774054</v>
       </c>
     </row>
     <row r="27">
@@ -1291,20 +1421,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>1.163887</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
-        <v>1.754371</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.163887</v>
       </c>
-      <c r="H27" t="n">
-        <v>-0.590484</v>
+      <c r="I27" t="n">
+        <v>1.163887</v>
       </c>
     </row>
     <row r="28">
@@ -1323,21 +1458,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>1.124557</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.124557</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1.124557</v>
       </c>
+      <c r="I28" t="n">
+        <v>1.124557</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1355,20 +1495,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>1.091292</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1.561304</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.784079</v>
-      </c>
       <c r="G29" t="n">
+        <v>1.969029</v>
+      </c>
+      <c r="H29" t="n">
         <v>-0.4700120000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>-0.692787</v>
+      <c r="I29" t="n">
+        <v>-0.877737</v>
       </c>
     </row>
     <row r="30">
@@ -1387,21 +1532,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>1.09069</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.09069</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>1.09069</v>
       </c>
+      <c r="I30" t="n">
+        <v>1.09069</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1419,19 +1569,24 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>1.036849</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1.308759</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>-0.2719100000000001</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>1.036849</v>
       </c>
     </row>
@@ -1451,19 +1606,24 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>0.969589</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.285282</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>-0.315693</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>0.969589</v>
       </c>
     </row>
@@ -1483,20 +1643,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>0.860185</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1.026807</v>
       </c>
-      <c r="F33" t="n">
-        <v>1.189315</v>
-      </c>
       <c r="G33" t="n">
+        <v>1.207408</v>
+      </c>
+      <c r="H33" t="n">
         <v>-0.166622</v>
       </c>
-      <c r="H33" t="n">
-        <v>-0.3291299999999999</v>
+      <c r="I33" t="n">
+        <v>-0.3472230000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1515,21 +1680,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>0.725189</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.725189</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0.725189</v>
       </c>
+      <c r="I34" t="n">
+        <v>0.725189</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1547,19 +1717,24 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>0.722515</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1.300562</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>-0.578047</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>0.722515</v>
       </c>
     </row>
@@ -1579,21 +1754,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>0.69667</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.69667</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0.69667</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.69667</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1611,20 +1791,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>0.650259</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.893226</v>
       </c>
-      <c r="F37" t="n">
-        <v>1.308844</v>
-      </c>
       <c r="G37" t="n">
+        <v>0.299202</v>
+      </c>
+      <c r="H37" t="n">
         <v>-0.2429669999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>-0.6585849999999999</v>
+      <c r="I37" t="n">
+        <v>0.351057</v>
       </c>
     </row>
     <row r="38">
@@ -1643,20 +1828,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>0.647791</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.963852</v>
       </c>
-      <c r="F38" t="n">
-        <v>1.12526</v>
-      </c>
       <c r="G38" t="n">
+        <v>1.794423</v>
+      </c>
+      <c r="H38" t="n">
         <v>-0.316061</v>
       </c>
-      <c r="H38" t="n">
-        <v>-0.4774689999999999</v>
+      <c r="I38" t="n">
+        <v>-1.146632</v>
       </c>
     </row>
     <row r="39">
@@ -1675,20 +1865,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>0.5749919999999999</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.70324</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
+        <v>0.411007</v>
+      </c>
+      <c r="H39" t="n">
         <v>-0.128248</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.5749919999999999</v>
+      <c r="I39" t="n">
+        <v>0.1639849999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1707,20 +1902,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>0.552887</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.79962</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.9079429999999999</v>
-      </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>-0.246733</v>
       </c>
-      <c r="H40" t="n">
-        <v>-0.3550559999999999</v>
+      <c r="I40" t="n">
+        <v>0.552887</v>
       </c>
     </row>
     <row r="41">
@@ -1739,20 +1939,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>0.552314</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.733836</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.869966</v>
-      </c>
       <c r="G41" t="n">
+        <v>0.896408</v>
+      </c>
+      <c r="H41" t="n">
         <v>-0.1815220000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>-0.317652</v>
+      <c r="I41" t="n">
+        <v>-0.344094</v>
       </c>
     </row>
     <row r="42">
@@ -1771,20 +1976,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>0.508178</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.8395629999999999</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.904371</v>
-      </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>-0.3313849999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>-0.396193</v>
+      <c r="I42" t="n">
+        <v>0.508178</v>
       </c>
     </row>
     <row r="43">
@@ -1803,21 +2013,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>0.369897</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.369897</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0.369897</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.369897</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1835,21 +2050,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>0.356413</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.356413</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0.356413</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.356413</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1867,20 +2087,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>0.336468</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.537199</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.633372</v>
-      </c>
       <c r="G45" t="n">
+        <v>0.615432</v>
+      </c>
+      <c r="H45" t="n">
         <v>-0.200731</v>
       </c>
-      <c r="H45" t="n">
-        <v>-0.2969040000000001</v>
+      <c r="I45" t="n">
+        <v>-0.278964</v>
       </c>
     </row>
     <row r="46">
@@ -1899,20 +2124,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>0.312321</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.399991</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.474508</v>
-      </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>-0.08766999999999997</v>
       </c>
-      <c r="H46" t="n">
-        <v>-0.162187</v>
+      <c r="I46" t="n">
+        <v>0.312321</v>
       </c>
     </row>
     <row r="47">
@@ -1931,20 +2161,25 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>0.308627</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
-        <v>0.589358</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
+        <v>0.6255849999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.308627</v>
       </c>
-      <c r="H47" t="n">
-        <v>-0.2807310000000001</v>
+      <c r="I47" t="n">
+        <v>-0.316958</v>
       </c>
     </row>
     <row r="48">
@@ -1963,21 +2198,26 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>0.281016</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.281016</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0.281016</v>
       </c>
+      <c r="I48" t="n">
+        <v>0.281016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1995,31 +2235,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>0.162169</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.162169</v>
+        <v>1.896342</v>
       </c>
       <c r="H49" t="n">
         <v>0.162169</v>
       </c>
+      <c r="I49" t="n">
+        <v>-1.734173</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE596I01020</t>
+          <t>INE476A01022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Computer Age Management Services Ltd</t>
+          <t>Canara Bank</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2027,31 +2272,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E50" t="n">
-        <v>0.530473</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.530473</v>
+        <v>1.514256</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.514256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INE596I01012</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Computer Age Management Services Ltd</t>
+          <t>Power Finance Corporation Ltd.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2059,31 +2309,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.622985</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2.360789</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.622985</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2.360789</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INE721A01047</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Shriram Finance Limited</t>
+          <t>Bharat Petroleum Corp Ltd</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2091,31 +2346,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E52" t="n">
-        <v>1.351238</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2.555138</v>
+        <v>0.281557</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.351238</v>
+        <v>1.813399</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.555138</v>
+        <v>-0.281557</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1.813399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INE148I01020</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sammaan Capital Ltd.</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2123,31 +2383,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.11825</v>
+        <v>0.420804</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.11825</v>
+        <v>-0.420804</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INE745G01035</t>
+          <t>INE066F01020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Multi Commodity Exchange of India Ltd.</t>
+          <t>Hindustan Aeronautics Limited</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2155,31 +2420,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E54" t="n">
-        <v>1.328867</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.328867</v>
+        <v>0.615827</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.615827</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Tata Steel Limited</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2187,31 +2457,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E55" t="n">
-        <v>0.420804</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.47928</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.420804</v>
+        <v>1.882056</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.47928</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.882056</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corp Ltd</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2219,31 +2494,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E56" t="n">
-        <v>0.281557</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.860393</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.281557</v>
+        <v>2.74085</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.860393</v>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2.74085</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>GAIL (India) Limited</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2251,31 +2531,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E57" t="n">
-        <v>2.10127</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.92037</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.10127</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
+        <v>-0.92037</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE745G01035</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Multi Commodity Exchange of India Ltd.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2283,31 +2568,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E58" t="n">
-        <v>0.92037</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.116385</v>
+        <v>1.328867</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.92037</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.116385</v>
+        <v>-1.328867</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INE081A01020</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tata Steel Limited</t>
+          <t>Bharti Airtel Limited</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2315,31 +2605,36 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.762333</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.057075</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.762333</v>
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.057075</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE148I01020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Sammaan Capital Ltd.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2347,20 +2642,247 @@
           <t>quant Arbitrage Fund</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5944120000000001</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2.181693</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.5944120000000001</v>
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-2.181693</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>INE721A01047</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Shriram Finance Limited</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.351238</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.468947</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1.351238</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-3.468947</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>INE010B01027</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Zydus Lifesciences Limited</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.615506</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.615506</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>INE280A01028</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Titan Company Limited</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.345126</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.345126</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>INE596I01020</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Computer Age Management Services Ltd</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.530473</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.530473</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>INE326A01037</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lupin Limited</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.976109</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.976109</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>INE237A01028</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Limited</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.10127</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-2.10127</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Arbitrage_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Arbitrage_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5.122585</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.18937</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5.122585</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2.933215</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4.586708</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>6.368688</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>6.935659</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-1.78198</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-2.348951</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.469772</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6.535528</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5.580702</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-2.065756</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-1.11093</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4.246653</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>5.613014</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4.894347</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-1.366360999999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.6476939999999995</v>
       </c>
     </row>
@@ -641,29 +666,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.873369</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.873369</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>3.873369</v>
       </c>
+      <c r="J6" t="n">
+        <v>3.873369</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.851404</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.976178</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.452223</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-1.124774</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-0.600819</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Non - Ferrous Metals</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.783416</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.674474</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.290919</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.8910580000000001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1.492497</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Diversified Metals</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.130176</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.723174</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1.991723</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.5929980000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1.138453</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.97592</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.060316</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.404248</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.9156040000000001</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.571672</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.363829</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.105701</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.480331</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>-0.7418719999999999</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-1.116502</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.241933</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.18037</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>-0.938437</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2.241933</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.003167</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.285146</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>2.003167</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1.718021</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.968018</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.042445</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1.571687</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.925573</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.396331</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.948855</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.055017</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.39462</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-1.106162</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1.554235</v>
       </c>
     </row>
@@ -1011,29 +1086,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.930213</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.930213</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1.930213</v>
       </c>
+      <c r="J16" t="n">
+        <v>1.930213</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.84816</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.576368</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.271792</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1.84816</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.847533</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.376838</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.71378</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.5293049999999997</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-0.8662469999999998</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.682869</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.54027</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>2.651455</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.8574010000000001</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.9685859999999999</v>
       </c>
     </row>
@@ -1159,29 +1254,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.651093</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.651093</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1.651093</v>
       </c>
+      <c r="J20" t="n">
+        <v>1.651093</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.496839</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.269405</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>-0.7725659999999999</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1.496839</v>
       </c>
     </row>
@@ -1233,29 +1338,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.45196</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.45196</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>1.45196</v>
       </c>
+      <c r="J22" t="n">
+        <v>1.45196</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1270,29 +1380,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.435625</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.435625</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1.435625</v>
       </c>
+      <c r="J23" t="n">
+        <v>1.435625</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.403702</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.774481</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>-0.370779</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1.403702</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.312675</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.744936</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>1.927675</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-0.432261</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-0.615</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.196325</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.695159</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>1.970379</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-0.498834</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-0.774054</v>
       </c>
     </row>
@@ -1418,29 +1548,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.163887</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.163887</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>1.163887</v>
       </c>
+      <c r="J27" t="n">
+        <v>1.163887</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1455,29 +1590,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.124557</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.124557</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>1.124557</v>
       </c>
+      <c r="J28" t="n">
+        <v>1.124557</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1.091292</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>1.561304</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1.969029</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>-0.4700120000000001</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>-0.877737</v>
       </c>
     </row>
@@ -1529,29 +1674,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.09069</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09069</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>1.09069</v>
       </c>
+      <c r="J30" t="n">
+        <v>1.09069</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1.036849</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.308759</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>-0.2719100000000001</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>1.036849</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.969589</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>1.285282</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>-0.315693</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.969589</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.860185</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>1.026807</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1.207408</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>-0.166622</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>-0.3472230000000001</v>
       </c>
     </row>
@@ -1677,29 +1842,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.725189</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.725189</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0.725189</v>
       </c>
+      <c r="J34" t="n">
+        <v>0.725189</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.722515</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>1.300562</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>-0.578047</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.722515</v>
       </c>
     </row>
@@ -1751,29 +1926,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.69667</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.69667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0.69667</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.69667</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.650259</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.893226</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.299202</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>-0.2429669999999999</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0.351057</v>
       </c>
     </row>
@@ -1825,27 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.647791</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.963852</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1.794423</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>-0.316061</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>-1.146632</v>
       </c>
     </row>
@@ -1862,27 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.5749919999999999</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.70324</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.411007</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>-0.128248</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.1639849999999999</v>
       </c>
     </row>
@@ -1899,27 +2094,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.552887</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.79962</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>-0.246733</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.552887</v>
       </c>
     </row>
@@ -1936,27 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.552314</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.733836</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.896408</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>-0.1815220000000001</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>-0.344094</v>
       </c>
     </row>
@@ -1973,27 +2178,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.508178</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.8395629999999999</v>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>-0.3313849999999999</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.508178</v>
       </c>
     </row>
@@ -2010,29 +2220,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.369897</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.369897</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0.369897</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.369897</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2047,29 +2262,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.356413</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.356413</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.356413</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.356413</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2084,27 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.336468</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.537199</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.615432</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-0.200731</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.278964</v>
       </c>
     </row>
@@ -2121,27 +2346,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.312321</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.399991</v>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>-0.08766999999999997</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.312321</v>
       </c>
     </row>
@@ -2158,27 +2388,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.308627</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.6255849999999999</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>0.308627</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>-0.316958</v>
       </c>
     </row>
@@ -2195,29 +2430,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.281016</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.281016</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0.281016</v>
       </c>
+      <c r="J48" t="n">
+        <v>0.281016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2232,27 +2472,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.162169</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.896342</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>0.162169</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>-1.734173</v>
       </c>
     </row>
@@ -2269,27 +2514,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.514256</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>-1.514256</v>
       </c>
     </row>
@@ -2306,27 +2556,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>2.360789</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>-2.360789</v>
       </c>
     </row>
@@ -2343,27 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.281557</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>1.813399</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>-0.281557</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>-1.813399</v>
       </c>
     </row>
@@ -2380,27 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.420804</v>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>-0.420804</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2417,27 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.615827</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>-0.615827</v>
       </c>
     </row>
@@ -2454,27 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.882056</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>-1.882056</v>
       </c>
     </row>
@@ -2491,27 +2766,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>2.74085</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>-2.74085</v>
       </c>
     </row>
@@ -2528,27 +2808,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.92037</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>-0.92037</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2565,27 +2850,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>1.328867</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>-1.328867</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2602,27 +2892,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.057075</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>-0.057075</v>
       </c>
     </row>
@@ -2639,27 +2934,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>2.181693</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>-2.181693</v>
       </c>
     </row>
@@ -2676,27 +2976,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.351238</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>3.468947</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>-1.351238</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>-3.468947</v>
       </c>
     </row>
@@ -2713,27 +3018,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.615506</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>-0.615506</v>
       </c>
     </row>
@@ -2750,27 +3060,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.345126</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>-0.345126</v>
       </c>
     </row>
@@ -2787,27 +3102,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.530473</v>
       </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>-0.530473</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2824,27 +3144,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.976109</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>-0.976109</v>
       </c>
     </row>
@@ -2861,27 +3186,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>quant Arbitrage Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>quant Arbitrage Fund</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>2.10127</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>-2.10127</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>0</v>
       </c>
     </row>
